--- a/biology/Zoologie/Colibri_géant/Colibri_géant.xlsx
+++ b/biology/Zoologie/Colibri_géant/Colibri_géant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colibri_g%C3%A9ant</t>
+          <t>Colibri_géant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Patagona gigas
 Le Colibri géant (Patagona gigas) est une espèce de colibri des Andes, le plus grand de cette famille (Trochilidae). C'est la seule espèce du genre Patagona.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Colibri_g%C3%A9ant</t>
+          <t>Colibri_géant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure 22 cm pour un poids de 18 g. Son plumage possède une teinte terne inhabituelle chez les colibris aux couleurs généralement brillantes : beige rosé sous la gorge et le ventre, gris verdâtre sur le dos et les ailes.
 De la taille d'un Martinet ou d'une Guifette, il vole sur place comme ses congénères, mais les battements de ses ailes sont moins rapides (8 à 10 battements par seconde) et font penser à ceux d'un papillon.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Colibri_g%C3%A9ant</t>
+          <t>Colibri_géant</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, il existe deux sous-espèces :
 Patagona gigas gigas  (Vieillot, 1824) ;
